--- a/data/trans_orig/P64DS2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{890AB36A-9559-4334-A754-FB7A63B6DDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{162D4CDE-CF28-44A1-9DA5-CBC73EFF7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E0609BB-4CEA-4AD2-803F-B24237FFE2BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7A91884-ED1B-49AA-A265-29AAE02757E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF30B6-DB41-4C82-8CE7-579E56FA0996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831E0A2-CFFB-4525-82C3-31C22F977C15}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P64DS2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{162D4CDE-CF28-44A1-9DA5-CBC73EFF7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91494DC9-13B1-4593-B972-C185DB89570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7A91884-ED1B-49AA-A265-29AAE02757E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEE08459-AA2C-462F-904A-B2D57D201708}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="179">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 2 en 2023 (Tasa respuesta: 42,62%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>3,48%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>En transporte público (autobús, metro, tren)</t>
@@ -110,25 +110,25 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>9,2%</t>
+    <t>9,21%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>En vehículo particular (automóvil, moto)</t>
@@ -140,25 +140,25 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>5,23%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>En bicicleta</t>
@@ -170,28 +170,28 @@
     <t>93,22%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -212,355 +212,364 @@
     <t>0,35%</t>
   </si>
   <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831E0A2-CFFB-4525-82C3-31C22F977C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC1F1FE-2AF9-4F2B-87B4-B9236C9FD782}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1593,10 +1602,10 @@
         <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1620,13 @@
         <v>76027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -1626,13 +1635,13 @@
         <v>72755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -1641,13 +1650,13 @@
         <v>148783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1686,7 @@
         <v>1064</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
@@ -1850,10 +1859,10 @@
         <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1877,13 @@
         <v>1388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1883,13 +1892,13 @@
         <v>3080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1898,13 +1907,13 @@
         <v>4468</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1928,13 @@
         <v>22065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -1934,13 +1943,13 @@
         <v>26344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -1949,13 +1958,13 @@
         <v>48409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1979,13 @@
         <v>27164</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -1985,13 +1994,13 @@
         <v>47559</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>111</v>
@@ -2000,13 +2009,13 @@
         <v>74722</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2030,13 @@
         <v>1035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2051,13 +2060,13 @@
         <v>1035</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2081,13 @@
         <v>412662</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>538</v>
@@ -2087,13 +2096,13 @@
         <v>395893</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>918</v>
@@ -2102,13 +2111,13 @@
         <v>808554</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2185,13 @@
         <v>1821</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2191,13 +2200,13 @@
         <v>1650</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2206,13 +2215,13 @@
         <v>3471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,10 +2239,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2242,13 +2251,13 @@
         <v>4974</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2260,10 +2269,10 @@
         <v>57</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2287,13 @@
         <v>91231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H27" s="7">
         <v>117</v>
@@ -2293,13 +2302,13 @@
         <v>98747</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M27" s="7">
         <v>198</v>
@@ -2308,13 +2317,13 @@
         <v>189977</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2338,13 @@
         <v>105132</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>201</v>
@@ -2344,13 +2353,13 @@
         <v>123478</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>322</v>
@@ -2359,13 +2368,13 @@
         <v>228610</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2389,13 @@
         <v>1035</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2395,13 +2404,13 @@
         <v>1064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2410,13 +2419,13 @@
         <v>2100</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2440,13 @@
         <v>1632656</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>1717</v>
@@ -2446,13 +2455,13 @@
         <v>1281325</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>3181</v>
@@ -2461,13 +2470,13 @@
         <v>2913981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2532,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
